--- a/Outputs/1. Budget/Output Files/100000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_5_36.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2266824.302072363</v>
+        <v>2260817.445069301</v>
       </c>
     </row>
     <row r="7">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.454366350094</v>
+        <v>137.4543663500939</v>
       </c>
       <c r="E12" t="n">
-        <v>147.6543812408562</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>102.2447450219517</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8426529813298378</v>
+        <v>0.8426529813300488</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>90.16713493809834</v>
+        <v>90.16713493809833</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.2974251316738</v>
+        <v>11.29742513167382</v>
       </c>
       <c r="J14" t="n">
-        <v>1.958590140067729</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>199.0293703717006</v>
+        <v>199.0293703717005</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>121.3294308203472</v>
       </c>
       <c r="C15" t="n">
-        <v>162.717799773771</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.40593363687029</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>43.03584158974249</v>
+        <v>43.03584158974255</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.454366350094</v>
+        <v>137.4543663500939</v>
       </c>
       <c r="E18" t="n">
-        <v>147.6543812408562</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.17134403714959</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R19" t="n">
         <v>103.3077609846173</v>
@@ -3353,7 +3353,7 @@
         <v>106.6347945887922</v>
       </c>
       <c r="E36" t="n">
-        <v>10.61268379230098</v>
+        <v>10.61268379230104</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.3475631767966</v>
+        <v>59.34756317679659</v>
       </c>
       <c r="S36" t="n">
         <v>130.8729001279913</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.35177227584786</v>
+        <v>45.35177227584784</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.1241347459318</v>
+        <v>120.124134745932</v>
       </c>
     </row>
     <row r="38">
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>38.7354379963672</v>
+        <v>38.73543799636718</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.115632027860711</v>
+        <v>2.115632027860727</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>199.1864122594935</v>
+        <v>199.1864122594936</v>
       </c>
       <c r="T41" t="n">
-        <v>213.2621922373795</v>
+        <v>213.2621922373796</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.6114082378869</v>
+        <v>137.611408237887</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.663517293817037</v>
+        <v>2.663517293816981</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>90.32417682589133</v>
+        <v>90.32417682589134</v>
       </c>
       <c r="S42" t="n">
         <v>161.849513777086</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>195.8490384505525</v>
+        <v>195.8490384505526</v>
       </c>
     </row>
     <row r="43">
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>138.7818156914605</v>
+        <v>138.7818156914606</v>
       </c>
       <c r="E43" t="n">
-        <v>27.4918710600458</v>
+        <v>27.49187106004557</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.43583449913105</v>
+        <v>12.43583449913106</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.6114082378869</v>
+        <v>137.611408237887</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>177.0360990150842</v>
       </c>
       <c r="V45" t="n">
-        <v>222.9669298226734</v>
+        <v>222.9669298226735</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>178.7095212506374</v>
+        <v>178.7095212506373</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>411.3984618922649</v>
+        <v>411.3984618922651</v>
       </c>
       <c r="C12" t="n">
-        <v>411.3984618922649</v>
+        <v>411.3984618922651</v>
       </c>
       <c r="D12" t="n">
-        <v>272.5556675992407</v>
+        <v>272.5556675992408</v>
       </c>
       <c r="E12" t="n">
-        <v>123.4098279620122</v>
+        <v>123.4098279620124</v>
       </c>
       <c r="F12" t="n">
-        <v>123.4098279620122</v>
+        <v>123.4098279620124</v>
       </c>
       <c r="G12" t="n">
-        <v>123.4098279620122</v>
+        <v>123.4098279620124</v>
       </c>
       <c r="H12" t="n">
-        <v>20.13230773781862</v>
+        <v>20.13230773781883</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5153,19 +5153,19 @@
         <v>872.979241431749</v>
       </c>
       <c r="U12" t="n">
-        <v>654.847238536365</v>
+        <v>654.8472385363651</v>
       </c>
       <c r="V12" t="n">
-        <v>654.847238536365</v>
+        <v>654.8472385363651</v>
       </c>
       <c r="W12" t="n">
-        <v>411.3984618922649</v>
+        <v>411.3984618922651</v>
       </c>
       <c r="X12" t="n">
-        <v>411.3984618922649</v>
+        <v>411.3984618922651</v>
       </c>
       <c r="Y12" t="n">
-        <v>411.3984618922649</v>
+        <v>411.3984618922651</v>
       </c>
     </row>
     <row r="13">
@@ -5205,28 +5205,28 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>56.48606034032505</v>
+        <v>56.48606034032506</v>
       </c>
       <c r="M13" t="n">
         <v>105.5648907549466</v>
       </c>
       <c r="N13" t="n">
-        <v>159.1465336327822</v>
+        <v>159.1465336327823</v>
       </c>
       <c r="O13" t="n">
-        <v>193.3766024900808</v>
+        <v>193.3766024900809</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="R13" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="S13" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5275,7 +5275,7 @@
         <v>32.67105752611326</v>
       </c>
       <c r="I14" t="n">
-        <v>21.25951698906902</v>
+        <v>21.259516989069</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5336,22 +5336,22 @@
         <v>400.2935134026171</v>
       </c>
       <c r="C15" t="n">
-        <v>235.9320994897172</v>
+        <v>235.9320994897171</v>
       </c>
       <c r="D15" t="n">
-        <v>235.9320994897172</v>
+        <v>235.9320994897171</v>
       </c>
       <c r="E15" t="n">
-        <v>235.9320994897172</v>
+        <v>235.9320994897171</v>
       </c>
       <c r="F15" t="n">
-        <v>99.48915688482919</v>
+        <v>99.48915688482917</v>
       </c>
       <c r="G15" t="n">
-        <v>99.48915688482919</v>
+        <v>99.48915688482917</v>
       </c>
       <c r="H15" t="n">
-        <v>99.48915688482919</v>
+        <v>99.48915688482917</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5442,40 +5442,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>56.48606034032505</v>
+        <v>56.48606034032506</v>
       </c>
       <c r="M16" t="n">
         <v>105.5648907549466</v>
       </c>
       <c r="N16" t="n">
-        <v>159.1465336327822</v>
+        <v>159.1465336327823</v>
       </c>
       <c r="O16" t="n">
-        <v>193.3766024900808</v>
+        <v>193.3766024900809</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="R16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="S16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="T16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="U16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="V16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="W16" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="X16" t="n">
         <v>157.1026213243788</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>307.2697770404654</v>
+        <v>307.2697770404653</v>
       </c>
       <c r="C18" t="n">
-        <v>307.2697770404654</v>
+        <v>307.2697770404653</v>
       </c>
       <c r="D18" t="n">
-        <v>168.4269827474412</v>
+        <v>168.4269827474411</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5633,13 +5633,13 @@
         <v>946.147121918598</v>
       </c>
       <c r="W18" t="n">
-        <v>702.698345274498</v>
+        <v>702.6983452744979</v>
       </c>
       <c r="X18" t="n">
-        <v>504.9384604371923</v>
+        <v>504.9384604371921</v>
       </c>
       <c r="Y18" t="n">
-        <v>307.2697770404654</v>
+        <v>307.2697770404653</v>
       </c>
     </row>
     <row r="19">
@@ -5679,19 +5679,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>56.48606034032505</v>
+        <v>56.48606034032506</v>
       </c>
       <c r="M19" t="n">
         <v>105.5648907549466</v>
       </c>
       <c r="N19" t="n">
-        <v>159.1465336327822</v>
+        <v>159.1465336327823</v>
       </c>
       <c r="O19" t="n">
-        <v>193.3766024900808</v>
+        <v>193.3766024900809</v>
       </c>
       <c r="P19" t="n">
-        <v>200.5731683847247</v>
+        <v>200.5731683847248</v>
       </c>
       <c r="Q19" t="n">
         <v>123.6324168320484</v>
@@ -6475,7 +6475,7 @@
         <v>521.1968824644405</v>
       </c>
       <c r="N29" t="n">
-        <v>752.453176360531</v>
+        <v>752.4531763605311</v>
       </c>
       <c r="O29" t="n">
         <v>934.2539782544499</v>
@@ -6995,10 +6995,10 @@
         <v>270.9434728006798</v>
       </c>
       <c r="C36" t="n">
-        <v>137.7129394547513</v>
+        <v>137.7129394547514</v>
       </c>
       <c r="D36" t="n">
-        <v>30.00102572869856</v>
+        <v>30.00102572869862</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7098,46 +7098,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>37.63651446867676</v>
+        <v>37.63651446867678</v>
       </c>
       <c r="L37" t="n">
         <v>105.3528077424778</v>
       </c>
       <c r="M37" t="n">
-        <v>184.943014200788</v>
+        <v>184.9430142007881</v>
       </c>
       <c r="N37" t="n">
-        <v>269.0360331223123</v>
+        <v>269.0360331223125</v>
       </c>
       <c r="O37" t="n">
-        <v>333.7774780232997</v>
+        <v>333.7774780232998</v>
       </c>
       <c r="P37" t="n">
-        <v>371.4854199616323</v>
+        <v>371.4854199616324</v>
       </c>
       <c r="Q37" t="n">
-        <v>325.6755489759274</v>
+        <v>325.6755489759275</v>
       </c>
       <c r="R37" t="n">
-        <v>325.6755489759274</v>
+        <v>325.6755489759275</v>
       </c>
       <c r="S37" t="n">
-        <v>140.6186529545883</v>
+        <v>140.6186529545884</v>
       </c>
       <c r="T37" t="n">
-        <v>140.6186529545883</v>
+        <v>140.6186529545884</v>
       </c>
       <c r="U37" t="n">
-        <v>140.6186529545883</v>
+        <v>140.6186529545884</v>
       </c>
       <c r="V37" t="n">
-        <v>140.6186529545883</v>
+        <v>140.6186529545884</v>
       </c>
       <c r="W37" t="n">
-        <v>140.6186529545883</v>
+        <v>140.6186529545884</v>
       </c>
       <c r="X37" t="n">
-        <v>140.6186529545883</v>
+        <v>140.6186529545884</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7396,19 +7396,19 @@
         <v>60.54485020539244</v>
       </c>
       <c r="E41" t="n">
-        <v>21.41814515855688</v>
+        <v>21.41814515855689</v>
       </c>
       <c r="F41" t="n">
-        <v>21.41814515855688</v>
+        <v>21.41814515855689</v>
       </c>
       <c r="G41" t="n">
-        <v>21.41814515855688</v>
+        <v>21.41814515855689</v>
       </c>
       <c r="H41" t="n">
-        <v>21.41814515855688</v>
+        <v>21.41814515855689</v>
       </c>
       <c r="I41" t="n">
-        <v>21.41814515855688</v>
+        <v>21.41814515855689</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7472,19 +7472,19 @@
         <v>160.9729870816309</v>
       </c>
       <c r="D42" t="n">
-        <v>21.97156461911882</v>
+        <v>21.97156461911877</v>
       </c>
       <c r="E42" t="n">
-        <v>21.97156461911882</v>
+        <v>21.97156461911877</v>
       </c>
       <c r="F42" t="n">
-        <v>21.97156461911882</v>
+        <v>21.97156461911877</v>
       </c>
       <c r="G42" t="n">
-        <v>21.97156461911882</v>
+        <v>21.97156461911877</v>
       </c>
       <c r="H42" t="n">
-        <v>21.97156461911882</v>
+        <v>21.97156461911877</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7551,37 +7551,37 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>823.8735032970397</v>
+        <v>823.8735032970396</v>
       </c>
       <c r="E43" t="n">
-        <v>796.1039365697208</v>
+        <v>796.1039365697209</v>
       </c>
       <c r="F43" t="n">
-        <v>796.1039365697208</v>
+        <v>796.1039365697209</v>
       </c>
       <c r="G43" t="n">
-        <v>796.1039365697208</v>
+        <v>796.1039365697209</v>
       </c>
       <c r="H43" t="n">
-        <v>796.1039365697208</v>
+        <v>796.1039365697209</v>
       </c>
       <c r="I43" t="n">
-        <v>796.1039365697208</v>
+        <v>796.1039365697209</v>
       </c>
       <c r="J43" t="n">
-        <v>796.1039365697208</v>
+        <v>796.1039365697209</v>
       </c>
       <c r="K43" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="L43" t="n">
-        <v>820.5919333418967</v>
+        <v>820.5919333418968</v>
       </c>
       <c r="M43" t="n">
-        <v>869.5152922876032</v>
+        <v>869.5152922876033</v>
       </c>
       <c r="N43" t="n">
-        <v>922.9414636965238</v>
+        <v>922.9414636965239</v>
       </c>
       <c r="O43" t="n">
         <v>957.0160610849074</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="C46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="D46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="E46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="F46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="G46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="H46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="I46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="J46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="K46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="L46" t="n">
-        <v>820.5919333418967</v>
+        <v>820.5919333418968</v>
       </c>
       <c r="M46" t="n">
-        <v>869.5152922876032</v>
+        <v>869.5152922876033</v>
       </c>
       <c r="N46" t="n">
-        <v>922.9414636965238</v>
+        <v>922.9414636965239</v>
       </c>
       <c r="O46" t="n">
         <v>957.0160610849074</v>
@@ -7842,16 +7842,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="W46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="X46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.5424875806995</v>
+        <v>783.5424875806996</v>
       </c>
     </row>
   </sheetData>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -23281,7 +23281,7 @@
         <v>200.4851903558611</v>
       </c>
       <c r="J11" t="n">
-        <v>1.958590140067729</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>199.0293703717006</v>
+        <v>199.0293703717005</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156.5424844353226</v>
+        <v>156.5424844353225</v>
       </c>
       <c r="C12" t="n">
-        <v>162.717799773771</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.56328065554045</v>
+        <v>78.56328065554023</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>222.8098879348805</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6899950687157741</v>
+        <v>0.6899950687157457</v>
       </c>
       <c r="X12" t="n">
         <v>195.7822859889327</v>
@@ -23418,7 +23418,7 @@
         <v>169.8412809673925</v>
       </c>
       <c r="C13" t="n">
-        <v>157.2561218840831</v>
+        <v>157.256121884083</v>
       </c>
       <c r="D13" t="n">
         <v>138.6247738036676</v>
@@ -23427,7 +23427,7 @@
         <v>136.4432634320244</v>
       </c>
       <c r="F13" t="n">
-        <v>135.4303488083865</v>
+        <v>135.4303488083864</v>
       </c>
       <c r="G13" t="n">
         <v>158.000280143914</v>
@@ -23439,10 +23439,10 @@
         <v>145.4597757127135</v>
       </c>
       <c r="J13" t="n">
-        <v>83.36848090212798</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K13" t="n">
-        <v>12.27879261133806</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.17134403714959</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R13" t="n">
         <v>167.3026921626247</v>
@@ -23469,7 +23469,7 @@
         <v>214.0258988224275</v>
       </c>
       <c r="T13" t="n">
-        <v>38.47578519196983</v>
+        <v>38.47578519196978</v>
       </c>
       <c r="U13" t="n">
         <v>276.3283301419461</v>
@@ -23481,7 +23481,7 @@
         <v>276.5322991220462</v>
       </c>
       <c r="X13" t="n">
-        <v>215.7189561744924</v>
+        <v>215.7189561744923</v>
       </c>
       <c r="Y13" t="n">
         <v>208.59395413755</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.21305361497539</v>
+        <v>35.21305361497531</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.454366350094</v>
+        <v>137.4543663500939</v>
       </c>
       <c r="E15" t="n">
-        <v>147.6543812408562</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90.16713493809834</v>
+        <v>90.16713493809833</v>
       </c>
       <c r="S15" t="n">
         <v>161.692471889293</v>
@@ -23636,7 +23636,7 @@
         <v>222.8098879348805</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6899950687157741</v>
+        <v>0.6899950687157457</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>169.8412809673925</v>
       </c>
       <c r="C16" t="n">
-        <v>157.2561218840831</v>
+        <v>157.256121884083</v>
       </c>
       <c r="D16" t="n">
         <v>138.6247738036676</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.4303488083865</v>
+        <v>135.4303488083864</v>
       </c>
       <c r="G16" t="n">
         <v>158.000280143914</v>
@@ -23676,10 +23676,10 @@
         <v>145.4597757127135</v>
       </c>
       <c r="J16" t="n">
-        <v>83.36848090212798</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K16" t="n">
-        <v>12.27879261133806</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.17134403714959</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R16" t="n">
         <v>167.3026921626247</v>
@@ -23718,7 +23718,7 @@
         <v>276.5322991220462</v>
       </c>
       <c r="X16" t="n">
-        <v>172.6831145847499</v>
+        <v>172.6831145847498</v>
       </c>
       <c r="Y16" t="n">
         <v>208.59395413755</v>
@@ -23755,7 +23755,7 @@
         <v>200.4851903558611</v>
       </c>
       <c r="J17" t="n">
-        <v>1.958590140067729</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>199.0293703717006</v>
+        <v>199.0293703717005</v>
       </c>
       <c r="T17" t="n">
         <v>213.1051503495866</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>156.5424844353226</v>
+        <v>156.5424844353225</v>
       </c>
       <c r="C18" t="n">
-        <v>162.717799773771</v>
+        <v>162.7177997737709</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>102.2447450219517</v>
       </c>
       <c r="I18" t="n">
-        <v>79.40593363687029</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>90.16713493809834</v>
+        <v>90.16713493809833</v>
       </c>
       <c r="S18" t="n">
         <v>143.9615386331752</v>
@@ -23873,7 +23873,7 @@
         <v>222.8098879348805</v>
       </c>
       <c r="W18" t="n">
-        <v>0.6899950687157741</v>
+        <v>0.6899950687157457</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>169.8412809673925</v>
       </c>
       <c r="C19" t="n">
-        <v>157.2561218840831</v>
+        <v>157.256121884083</v>
       </c>
       <c r="D19" t="n">
         <v>138.6247738036676</v>
@@ -23901,7 +23901,7 @@
         <v>136.4432634320244</v>
       </c>
       <c r="F19" t="n">
-        <v>135.4303488083865</v>
+        <v>135.4303488083864</v>
       </c>
       <c r="G19" t="n">
         <v>158.000280143914</v>
@@ -23913,10 +23913,10 @@
         <v>145.4597757127135</v>
       </c>
       <c r="J19" t="n">
-        <v>83.36848090212798</v>
+        <v>83.36848090212797</v>
       </c>
       <c r="K19" t="n">
-        <v>12.27879261133806</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.99493117800742</v>
+        <v>63.99493117800735</v>
       </c>
       <c r="S19" t="n">
         <v>214.0258988224275</v>
@@ -23955,7 +23955,7 @@
         <v>276.5322991220462</v>
       </c>
       <c r="X19" t="n">
-        <v>215.7189561744924</v>
+        <v>215.7189561744923</v>
       </c>
       <c r="Y19" t="n">
         <v>208.59395413755</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>109.0588469653032</v>
+        <v>109.0588469653031</v>
       </c>
       <c r="S35" t="n">
         <v>168.2097986103988</v>
@@ -25210,7 +25210,7 @@
         <v>182.2855785882848</v>
       </c>
       <c r="U35" t="n">
-        <v>210.53538193199</v>
+        <v>210.5353819319899</v>
       </c>
       <c r="V35" t="n">
         <v>74.65660185084636</v>
@@ -25244,16 +25244,16 @@
         <v>106.2221256872534</v>
       </c>
       <c r="F36" t="n">
-        <v>104.2589414175374</v>
+        <v>104.2589414175373</v>
       </c>
       <c r="G36" t="n">
-        <v>96.53324618736411</v>
+        <v>96.53324618736409</v>
       </c>
       <c r="H36" t="n">
         <v>71.42517326064993</v>
       </c>
       <c r="I36" t="n">
-        <v>48.58636187556855</v>
+        <v>48.58636187556854</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>164.962714227631</v>
+        <v>164.9627142276309</v>
       </c>
       <c r="Y36" t="n">
         <v>164.8724248014578</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.0217092060908</v>
+        <v>139.0217092060907</v>
       </c>
       <c r="C37" t="n">
         <v>126.4365501227813</v>
@@ -25329,13 +25329,13 @@
         <v>127.1807083826122</v>
       </c>
       <c r="H37" t="n">
-        <v>121.4169015315931</v>
+        <v>121.416901531593</v>
       </c>
       <c r="I37" t="n">
-        <v>114.6402039514118</v>
+        <v>114.6402039514117</v>
       </c>
       <c r="J37" t="n">
-        <v>52.54890914082625</v>
+        <v>52.54890914082623</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>136.483120401323</v>
+        <v>136.4831204013229</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>187.135318452435</v>
+        <v>187.1353184524349</v>
       </c>
       <c r="U37" t="n">
-        <v>245.5087583806444</v>
+        <v>245.5087583806443</v>
       </c>
       <c r="V37" t="n">
         <v>211.3273723479815</v>
@@ -25380,7 +25380,7 @@
         <v>184.8993844131906</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.65024763031646</v>
+        <v>57.65024763031629</v>
       </c>
     </row>
     <row r="38">
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1570418877929978</v>
+        <v>0.1570418877930138</v>
       </c>
       <c r="R41" t="n">
         <v>140.0354606143979</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4977067034256208</v>
+        <v>0.4977067034256493</v>
       </c>
       <c r="V41" t="n">
         <v>76.90431226572406</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>147.8114231286491</v>
+        <v>147.8114231286492</v>
       </c>
       <c r="F42" t="n">
         <v>135.2355550666321</v>
@@ -25727,7 +25727,7 @@
         <v>102.4017869097447</v>
       </c>
       <c r="I42" t="n">
-        <v>76.89945823084624</v>
+        <v>76.89945823084631</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>216.107724754223</v>
       </c>
       <c r="V42" t="n">
-        <v>222.9669298226734</v>
+        <v>222.9669298226735</v>
       </c>
       <c r="W42" t="n">
         <v>241.8613258341678</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>109.1084342597716</v>
+        <v>109.1084342597718</v>
       </c>
       <c r="F43" t="n">
-        <v>135.5873906961794</v>
+        <v>135.5873906961795</v>
       </c>
       <c r="G43" t="n">
-        <v>158.1573220317069</v>
+        <v>158.157322031707</v>
       </c>
       <c r="H43" t="n">
         <v>152.3935151806878</v>
@@ -25809,7 +25809,7 @@
         <v>145.6168176005065</v>
       </c>
       <c r="J43" t="n">
-        <v>83.52552278992097</v>
+        <v>83.52552278992098</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.32838592494258</v>
+        <v>76.32838592494259</v>
       </c>
       <c r="R43" t="n">
         <v>167.4597340504177</v>
       </c>
       <c r="S43" t="n">
-        <v>214.1829407102204</v>
+        <v>214.1829407102205</v>
       </c>
       <c r="T43" t="n">
         <v>218.1119321015297</v>
@@ -25851,7 +25851,7 @@
         <v>276.6893410098392</v>
       </c>
       <c r="X43" t="n">
-        <v>215.8759980622853</v>
+        <v>215.8759980622854</v>
       </c>
       <c r="Y43" t="n">
         <v>208.750996025343</v>
@@ -25888,7 +25888,7 @@
         <v>200.6422322436541</v>
       </c>
       <c r="J44" t="n">
-        <v>2.115632027860711</v>
+        <v>2.115632027860727</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1570418877929978</v>
+        <v>0.1570418877930138</v>
       </c>
       <c r="R44" t="n">
         <v>140.0354606143979</v>
       </c>
       <c r="S44" t="n">
-        <v>199.1864122594935</v>
+        <v>199.1864122594936</v>
       </c>
       <c r="T44" t="n">
-        <v>213.2621922373795</v>
+        <v>213.2621922373796</v>
       </c>
       <c r="U44" t="n">
         <v>241.5119955810847</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>147.8114231286491</v>
+        <v>147.8114231286492</v>
       </c>
       <c r="F45" t="n">
         <v>135.2355550666321</v>
@@ -25964,7 +25964,7 @@
         <v>102.4017869097447</v>
       </c>
       <c r="I45" t="n">
-        <v>79.56297552466327</v>
+        <v>79.56297552466329</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>90.32417682589133</v>
+        <v>90.32417682589134</v>
       </c>
       <c r="S45" t="n">
         <v>161.849513777086</v>
@@ -26000,19 +26000,19 @@
         <v>190.3310713680698</v>
       </c>
       <c r="U45" t="n">
-        <v>39.07162573913882</v>
+        <v>39.07162573913885</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.847036956508731</v>
+        <v>0.8470369565087594</v>
       </c>
       <c r="X45" t="n">
         <v>195.9393278767257</v>
       </c>
       <c r="Y45" t="n">
-        <v>195.8490384505525</v>
+        <v>195.8490384505526</v>
       </c>
     </row>
     <row r="46">
@@ -26028,16 +26028,16 @@
         <v>157.413163771876</v>
       </c>
       <c r="D46" t="n">
-        <v>138.7818156914605</v>
+        <v>138.7818156914606</v>
       </c>
       <c r="E46" t="n">
         <v>136.6003053198174</v>
       </c>
       <c r="F46" t="n">
-        <v>135.5873906961794</v>
+        <v>135.5873906961795</v>
       </c>
       <c r="G46" t="n">
-        <v>158.1573220317069</v>
+        <v>158.157322031707</v>
       </c>
       <c r="H46" t="n">
         <v>152.3935151806878</v>
@@ -26046,10 +26046,10 @@
         <v>145.6168176005065</v>
       </c>
       <c r="J46" t="n">
-        <v>83.52552278992097</v>
+        <v>83.52552278992098</v>
       </c>
       <c r="K46" t="n">
-        <v>12.43583449913105</v>
+        <v>12.43583449913106</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.32838592494258</v>
+        <v>76.32838592494259</v>
       </c>
       <c r="R46" t="n">
         <v>167.4597340504177</v>
       </c>
       <c r="S46" t="n">
-        <v>214.1829407102204</v>
+        <v>214.1829407102205</v>
       </c>
       <c r="T46" t="n">
         <v>218.1119321015297</v>
@@ -26082,13 +26082,13 @@
         <v>276.4853720297391</v>
       </c>
       <c r="V46" t="n">
-        <v>63.5944647464388</v>
+        <v>63.59446474643894</v>
       </c>
       <c r="W46" t="n">
         <v>276.6893410098392</v>
       </c>
       <c r="X46" t="n">
-        <v>215.8759980622853</v>
+        <v>215.8759980622854</v>
       </c>
       <c r="Y46" t="n">
         <v>208.750996025343</v>
@@ -26319,7 +26319,7 @@
         <v>738333.9046792068</v>
       </c>
       <c r="D2" t="n">
-        <v>738333.9046792067</v>
+        <v>738333.9046792068</v>
       </c>
       <c r="E2" t="n">
         <v>323259.7044911343</v>
@@ -26352,7 +26352,7 @@
         <v>327851.9927735218</v>
       </c>
       <c r="O2" t="n">
-        <v>322880.2393407699</v>
+        <v>322880.23934077</v>
       </c>
       <c r="P2" t="n">
         <v>322880.2393407699</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>77901.0877306808</v>
+        <v>77901.08773068081</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1566.872112054183</v>
+        <v>1566.872112054172</v>
       </c>
       <c r="I3" t="n">
         <v>31064.21564860007</v>
       </c>
       <c r="J3" t="n">
-        <v>1692.505622288569</v>
+        <v>1692.505622288581</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372039.5754923638</v>
+        <v>372567.4598828803</v>
       </c>
       <c r="C4" t="n">
-        <v>372039.5754923638</v>
+        <v>372567.4598828804</v>
       </c>
       <c r="D4" t="n">
-        <v>372039.5754923638</v>
+        <v>372567.4598828803</v>
       </c>
       <c r="E4" t="n">
-        <v>59448.63443330343</v>
+        <v>60255.45062348613</v>
       </c>
       <c r="F4" t="n">
-        <v>59448.63443330343</v>
+        <v>60255.45062348612</v>
       </c>
       <c r="G4" t="n">
-        <v>59448.63443330342</v>
+        <v>60255.45062348612</v>
       </c>
       <c r="H4" t="n">
-        <v>62364.01980301006</v>
+        <v>63170.83599319273</v>
       </c>
       <c r="I4" t="n">
-        <v>110091.3239221582</v>
+        <v>110910.2777183096</v>
       </c>
       <c r="J4" t="n">
-        <v>97333.2341791863</v>
+        <v>98149.40525027062</v>
       </c>
       <c r="K4" t="n">
-        <v>97333.2341791863</v>
+        <v>98149.40525027062</v>
       </c>
       <c r="L4" t="n">
-        <v>113264.359552754</v>
+        <v>114084.00543416</v>
       </c>
       <c r="M4" t="n">
-        <v>104013.3685888816</v>
+        <v>104820.1847790643</v>
       </c>
       <c r="N4" t="n">
-        <v>62364.01980301006</v>
+        <v>63170.83599319273</v>
       </c>
       <c r="O4" t="n">
-        <v>59207.74076990256</v>
+        <v>60014.55696008523</v>
       </c>
       <c r="P4" t="n">
-        <v>59207.74076990257</v>
+        <v>60014.55696008523</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329944.3445286477</v>
+        <v>329416.4601381311</v>
       </c>
       <c r="C6" t="n">
-        <v>332248.665605747</v>
+        <v>331720.7812152304</v>
       </c>
       <c r="D6" t="n">
-        <v>332248.6656057468</v>
+        <v>331720.7812152304</v>
       </c>
       <c r="E6" t="n">
-        <v>170416.4054711208</v>
+        <v>169609.5892809381</v>
       </c>
       <c r="F6" t="n">
-        <v>248317.4932018016</v>
+        <v>247510.6770116189</v>
       </c>
       <c r="G6" t="n">
-        <v>248317.4932018016</v>
+        <v>247510.6770116189</v>
       </c>
       <c r="H6" t="n">
-        <v>248262.867287943</v>
+        <v>247456.0510977603</v>
       </c>
       <c r="I6" t="n">
-        <v>245162.7469720747</v>
+        <v>244343.7931759233</v>
       </c>
       <c r="J6" t="n">
-        <v>267545.6520929798</v>
+        <v>266729.4810218955</v>
       </c>
       <c r="K6" t="n">
-        <v>269238.1577152683</v>
+        <v>268421.9866441839</v>
       </c>
       <c r="L6" t="n">
-        <v>267925.1238769561</v>
+        <v>267105.47799555</v>
       </c>
       <c r="M6" t="n">
-        <v>220900.6266178241</v>
+        <v>220093.8104276414</v>
       </c>
       <c r="N6" t="n">
-        <v>249829.7393999972</v>
+        <v>249022.9232098145</v>
       </c>
       <c r="O6" t="n">
-        <v>248192.124069303</v>
+        <v>247385.3078791204</v>
       </c>
       <c r="P6" t="n">
-        <v>248192.1240693029</v>
+        <v>247385.3078791203</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H2" t="n">
         <v>11.94928935461252</v>
@@ -26718,16 +26718,16 @@
         <v>42.76886111591426</v>
       </c>
       <c r="M2" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="N2" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="O2" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="P2" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
     <row r="3">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.958590140067729</v>
+        <v>1.958590140067715</v>
       </c>
       <c r="I2" t="n">
         <v>28.86098162123402</v>
       </c>
       <c r="J2" t="n">
-        <v>2.115632027860711</v>
+        <v>2.115632027860727</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.958590140067729</v>
+        <v>1.958590140067715</v>
       </c>
       <c r="N2" t="n">
         <v>28.86098162123402</v>
       </c>
       <c r="O2" t="n">
-        <v>2.115632027860711</v>
+        <v>2.115632027860727</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28134,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="12">
@@ -28168,28 +28168,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28216,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="L13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="M13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="N13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="O13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="P13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="14">
@@ -28326,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="15">
@@ -28405,28 +28405,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28453,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="L16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="M16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="N16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="O16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="P16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="17">
@@ -28563,31 +28563,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="C19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="D19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="E19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="F19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="G19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="H19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="I19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="J19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="K19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="L19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="M19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="N19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="O19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="P19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="S19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="T19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="U19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="V19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="W19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="X19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.990699214544788</v>
+        <v>9.990699214544804</v>
       </c>
     </row>
     <row r="20">
@@ -29547,7 +29547,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>25.65835524126369</v>
+        <v>25.65835524126371</v>
       </c>
       <c r="O29" t="n">
         <v>32.93520378916246</v>
@@ -29556,7 +29556,7 @@
         <v>32.93520378916246</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544788</v>
       </c>
       <c r="R29" t="n">
         <v>32.93520378916246</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="C35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="D35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="E35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="F35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="G35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="H35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="I35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="S35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="T35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="U35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="V35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="W35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="X35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
     </row>
     <row r="36">
@@ -30064,28 +30064,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="C36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="D36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="E36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="F36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="G36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="H36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="I36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="S36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="T36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="U36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="V36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="W36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="X36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="Y36" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="C37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="D37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="E37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="F37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="G37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="H37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="I37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="J37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="L37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="M37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="N37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="O37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="P37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="R37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="S37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="T37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="U37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="V37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="W37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="X37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.81027097584653</v>
+        <v>40.81027097584654</v>
       </c>
     </row>
     <row r="38">
@@ -30459,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="C41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="D41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="E41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="F41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="G41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="H41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="I41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="J41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30504,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="R41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="S41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="T41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="U41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="V41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="W41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="X41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="C42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="D42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="E42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="F42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="G42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="H42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="I42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="S42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="T42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="U42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="V42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="W42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="X42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="C43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="D43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="E43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="F43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="G43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="H43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="I43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="J43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="K43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="L43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="M43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="N43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="O43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="P43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="R43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="S43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="T43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="U43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="V43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="W43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="X43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
     <row r="44">
@@ -30696,31 +30696,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="C44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="D44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="E44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="F44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="G44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="H44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="I44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="J44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30741,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="R44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="S44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="T44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="U44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="V44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="W44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="X44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="C45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="D45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="E45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="F45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="G45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="H45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="I45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="S45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="T45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="U45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="V45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="W45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="X45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="C46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="D46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="E46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="F46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="G46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="H46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="I46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="J46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="K46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="L46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="M46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="N46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="O46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="P46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="R46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="S46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="T46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="U46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="V46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="W46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="X46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.833657326751807</v>
+        <v>9.833657326751791</v>
       </c>
     </row>
   </sheetData>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>37.58072447486093</v>
+        <v>37.58072447486094</v>
       </c>
       <c r="M13" t="n">
-        <v>49.57457617638538</v>
+        <v>49.57457617638539</v>
       </c>
       <c r="N13" t="n">
-        <v>54.12287159377338</v>
+        <v>54.1228715937734</v>
       </c>
       <c r="O13" t="n">
-        <v>34.57582712858446</v>
+        <v>34.57582712858448</v>
       </c>
       <c r="P13" t="n">
-        <v>7.269258479438276</v>
+        <v>7.269258479438292</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>37.58072447486093</v>
+        <v>37.58072447486094</v>
       </c>
       <c r="M16" t="n">
-        <v>49.57457617638538</v>
+        <v>49.57457617638539</v>
       </c>
       <c r="N16" t="n">
-        <v>54.12287159377338</v>
+        <v>54.1228715937734</v>
       </c>
       <c r="O16" t="n">
-        <v>34.57582712858446</v>
+        <v>34.57582712858448</v>
       </c>
       <c r="P16" t="n">
-        <v>7.269258479438276</v>
+        <v>7.269258479438292</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>37.58072447486093</v>
+        <v>37.58072447486094</v>
       </c>
       <c r="M19" t="n">
-        <v>49.57457617638538</v>
+        <v>49.57457617638539</v>
       </c>
       <c r="N19" t="n">
-        <v>54.12287159377338</v>
+        <v>54.1228715937734</v>
       </c>
       <c r="O19" t="n">
-        <v>34.57582712858446</v>
+        <v>34.57582712858448</v>
       </c>
       <c r="P19" t="n">
-        <v>7.269258479438276</v>
+        <v>7.269258479438292</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>36.53441726865219</v>
       </c>
       <c r="P22" t="n">
-        <v>9.227848619506005</v>
+        <v>9.227848619506007</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>233.5922160566569</v>
+        <v>233.592216056657</v>
       </c>
       <c r="O29" t="n">
         <v>183.6371736302211</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>18.54077914996368</v>
+        <v>18.54077914996369</v>
       </c>
       <c r="L37" t="n">
-        <v>68.40029623616266</v>
+        <v>68.40029623616269</v>
       </c>
       <c r="M37" t="n">
-        <v>80.39414793768711</v>
+        <v>80.39414793768714</v>
       </c>
       <c r="N37" t="n">
-        <v>84.94244335507511</v>
+        <v>84.94244335507514</v>
       </c>
       <c r="O37" t="n">
-        <v>65.3953988898862</v>
+        <v>65.39539888988622</v>
       </c>
       <c r="P37" t="n">
-        <v>38.08883024074002</v>
+        <v>38.08883024074003</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>37.42368258706794</v>
+        <v>37.42368258706793</v>
       </c>
       <c r="M43" t="n">
-        <v>49.41753428859239</v>
+        <v>49.41753428859238</v>
       </c>
       <c r="N43" t="n">
-        <v>53.9658297059804</v>
+        <v>53.96582970598038</v>
       </c>
       <c r="O43" t="n">
-        <v>34.41878524079148</v>
+        <v>34.41878524079146</v>
       </c>
       <c r="P43" t="n">
-        <v>7.112216591645295</v>
+        <v>7.112216591645279</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>37.42368258706794</v>
+        <v>37.42368258706793</v>
       </c>
       <c r="M46" t="n">
-        <v>49.41753428859239</v>
+        <v>49.41753428859238</v>
       </c>
       <c r="N46" t="n">
-        <v>53.9658297059804</v>
+        <v>53.96582970598038</v>
       </c>
       <c r="O46" t="n">
-        <v>34.41878524079148</v>
+        <v>34.41878524079146</v>
       </c>
       <c r="P46" t="n">
-        <v>7.112216591645295</v>
+        <v>7.112216591645279</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
